--- a/example.xlsx
+++ b/example.xlsx
@@ -5,15 +5,16 @@
   <workbookPr dateCompatibility="0" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gaochengyi/Documents/Study/studyByCode/anki卡包/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gaochengyi/Documents/Study/studyByCode/anki卡包/buildAnki/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{D192D6D0-2854-8E41-B90D-89BA4F740C1C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{D1F4CB17-7BAC-604B-9E24-78895DD72C3C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="33600" windowHeight="21000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2400" yWindow="300" windowWidth="33600" windowHeight="21000" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="anki" sheetId="1" r:id="rId1"/>
+    <sheet name="test" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="0"/>
   <extLst>
@@ -1235,8 +1236,8 @@
 <worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -1551,4 +1552,35 @@
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CFCA90F8-4A2A-C648-AF65-7604870F536A}">
+  <dimension ref="A1:A3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="18" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>